--- a/Documentos/[1.INICIO]/Iteracion 1/MQPY_Catalogo_Pruebas.xlsx
+++ b/Documentos/[1.INICIO]/Iteracion 1/MQPY_Catalogo_Pruebas.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aldo\Documents\GitHub\MAQUIPURAY\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aldo\Documents\GitHub\MAQUIPURAY\Documentos\[1.INICIO]\Iteracion 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993F861C-8FC7-41DC-8F70-68531EB66CBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16695" windowHeight="10425"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -396,7 +397,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -842,9 +843,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -871,6 +869,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1086,14 +1087,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:XFD115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G111" sqref="G111"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1106,6 +1107,7 @@
     <col min="6" max="6" width="28.140625" customWidth="1"/>
     <col min="7" max="7" width="40.28515625" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" customWidth="1"/>
     <col min="13" max="13" width="17" customWidth="1"/>
     <col min="16" max="16" width="8.28515625" customWidth="1"/>
     <col min="17" max="17" width="12.28515625" customWidth="1"/>
@@ -17503,14 +17505,14 @@
     </row>
     <row r="2" spans="1:16384" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="17"/>
       <c r="I2" s="37" t="s">
         <v>92</v>
@@ -33919,14 +33921,14 @@
     </row>
     <row r="4" spans="1:16384" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="46"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
       <c r="H4" s="17"/>
       <c r="I4" s="39" t="s">
         <v>94</v>
@@ -33955,7 +33957,7 @@
         <v>7</v>
       </c>
       <c r="H5" s="17"/>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="49" t="s">
         <v>95</v>
       </c>
     </row>
@@ -34025,14 +34027,14 @@
     </row>
     <row r="10" spans="1:16384" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="46"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
       <c r="H10" s="17"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -34126,14 +34128,14 @@
     </row>
     <row r="16" spans="1:16384" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="46"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="17"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -34227,14 +34229,14 @@
     </row>
     <row r="22" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="46"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="45"/>
       <c r="H22" s="17"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -34328,14 +34330,14 @@
     </row>
     <row r="28" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="46"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="45"/>
       <c r="H28" s="17"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -34429,14 +34431,14 @@
     </row>
     <row r="34" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="46"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="45"/>
       <c r="H34" s="17"/>
     </row>
     <row r="35" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -34571,14 +34573,14 @@
     </row>
     <row r="42" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="13"/>
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="46"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="45"/>
       <c r="H42" s="17"/>
     </row>
     <row r="43" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -34757,14 +34759,14 @@
     </row>
     <row r="52" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="13"/>
-      <c r="B52" s="44" t="s">
+      <c r="B52" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="46"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="45"/>
       <c r="H52" s="17"/>
     </row>
     <row r="53" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -34855,14 +34857,14 @@
     </row>
     <row r="58" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="13"/>
-      <c r="B58" s="44" t="s">
+      <c r="B58" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="46"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="45"/>
       <c r="H58" s="17"/>
     </row>
     <row r="59" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -34953,14 +34955,14 @@
     </row>
     <row r="64" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="13"/>
-      <c r="B64" s="44" t="s">
+      <c r="B64" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="45"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="45"/>
-      <c r="F64" s="45"/>
-      <c r="G64" s="46"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="45"/>
       <c r="H64" s="17"/>
     </row>
     <row r="65" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -35095,14 +35097,14 @@
     </row>
     <row r="72" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="13"/>
-      <c r="B72" s="44" t="s">
+      <c r="B72" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C72" s="45"/>
-      <c r="D72" s="45"/>
-      <c r="E72" s="45"/>
-      <c r="F72" s="45"/>
-      <c r="G72" s="46"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="44"/>
+      <c r="G72" s="45"/>
       <c r="H72" s="17"/>
     </row>
     <row r="73" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -35237,14 +35239,14 @@
     </row>
     <row r="80" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="13"/>
-      <c r="B80" s="44" t="s">
+      <c r="B80" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C80" s="45"/>
-      <c r="D80" s="45"/>
-      <c r="E80" s="45"/>
-      <c r="F80" s="45"/>
-      <c r="G80" s="46"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="44"/>
+      <c r="E80" s="44"/>
+      <c r="F80" s="44"/>
+      <c r="G80" s="45"/>
       <c r="H80" s="17"/>
     </row>
     <row r="81" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -35274,19 +35276,19 @@
       <c r="B82" s="29">
         <v>1</v>
       </c>
-      <c r="C82" s="41" t="s">
+      <c r="C82" s="40" t="s">
         <v>96</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E82" s="41" t="s">
+      <c r="E82" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="F82" s="41" t="s">
+      <c r="F82" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="G82" s="42" t="s">
+      <c r="G82" s="41" t="s">
         <v>105</v>
       </c>
       <c r="H82" s="17"/>
@@ -35313,14 +35315,14 @@
     </row>
     <row r="85" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="13"/>
-      <c r="B85" s="44" t="s">
+      <c r="B85" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="C85" s="45"/>
-      <c r="D85" s="45"/>
-      <c r="E85" s="45"/>
-      <c r="F85" s="45"/>
-      <c r="G85" s="46"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="44"/>
+      <c r="E85" s="44"/>
+      <c r="F85" s="44"/>
+      <c r="G85" s="45"/>
       <c r="H85" s="17"/>
     </row>
     <row r="86" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -35350,19 +35352,19 @@
       <c r="B87" s="22">
         <v>1</v>
       </c>
-      <c r="C87" s="41" t="s">
+      <c r="C87" s="40" t="s">
         <v>98</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E87" s="41" t="s">
+      <c r="E87" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="F87" s="41" t="s">
+      <c r="F87" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="G87" s="42" t="s">
+      <c r="G87" s="41" t="s">
         <v>102</v>
       </c>
       <c r="H87" s="17"/>
@@ -35372,19 +35374,19 @@
       <c r="B88" s="22">
         <v>2</v>
       </c>
-      <c r="C88" s="41" t="s">
+      <c r="C88" s="40" t="s">
         <v>99</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E88" s="41" t="s">
+      <c r="E88" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="F88" s="41" t="s">
+      <c r="F88" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="G88" s="42" t="s">
+      <c r="G88" s="41" t="s">
         <v>101</v>
       </c>
       <c r="H88" s="17"/>
@@ -35411,14 +35413,14 @@
     </row>
     <row r="91" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="13"/>
-      <c r="B91" s="44" t="s">
+      <c r="B91" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="C91" s="45"/>
-      <c r="D91" s="45"/>
-      <c r="E91" s="45"/>
-      <c r="F91" s="45"/>
-      <c r="G91" s="46"/>
+      <c r="C91" s="44"/>
+      <c r="D91" s="44"/>
+      <c r="E91" s="44"/>
+      <c r="F91" s="44"/>
+      <c r="G91" s="45"/>
       <c r="H91" s="17"/>
     </row>
     <row r="92" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -35480,7 +35482,7 @@
       <c r="F94" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G94" s="42" t="s">
+      <c r="G94" s="41" t="s">
         <v>101</v>
       </c>
       <c r="H94" s="17"/>
@@ -35551,14 +35553,14 @@
     </row>
     <row r="99" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="13"/>
-      <c r="B99" s="44" t="s">
+      <c r="B99" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="C99" s="45"/>
-      <c r="D99" s="45"/>
-      <c r="E99" s="45"/>
-      <c r="F99" s="45"/>
-      <c r="G99" s="46"/>
+      <c r="C99" s="44"/>
+      <c r="D99" s="44"/>
+      <c r="E99" s="44"/>
+      <c r="F99" s="44"/>
+      <c r="G99" s="45"/>
       <c r="H99" s="17"/>
     </row>
     <row r="100" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -35588,19 +35590,19 @@
       <c r="B101" s="22">
         <v>1</v>
       </c>
-      <c r="C101" s="41" t="s">
+      <c r="C101" s="40" t="s">
         <v>111</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E101" s="41" t="s">
+      <c r="E101" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="F101" s="41" t="s">
+      <c r="F101" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="G101" s="42" t="s">
+      <c r="G101" s="41" t="s">
         <v>114</v>
       </c>
       <c r="H101" s="17"/>
@@ -35610,19 +35612,19 @@
       <c r="B102" s="22">
         <v>1</v>
       </c>
-      <c r="C102" s="41" t="s">
+      <c r="C102" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="D102" s="43" t="s">
+      <c r="D102" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E102" s="41" t="s">
+      <c r="E102" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="F102" s="41" t="s">
+      <c r="F102" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="G102" s="42" t="s">
+      <c r="G102" s="41" t="s">
         <v>122</v>
       </c>
       <c r="H102" s="17"/>
@@ -35632,19 +35634,19 @@
       <c r="B103" s="22">
         <v>2</v>
       </c>
-      <c r="C103" s="41" t="s">
+      <c r="C103" s="40" t="s">
         <v>115</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E103" s="41" t="s">
+      <c r="E103" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="F103" s="41" t="s">
+      <c r="F103" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="G103" s="42" t="s">
+      <c r="G103" s="41" t="s">
         <v>117</v>
       </c>
       <c r="H103" s="17"/>
@@ -35654,19 +35656,19 @@
       <c r="B104" s="22">
         <v>2</v>
       </c>
-      <c r="C104" s="41" t="s">
+      <c r="C104" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="D104" s="43" t="s">
+      <c r="D104" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E104" s="41" t="s">
+      <c r="E104" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="F104" s="41" t="s">
+      <c r="F104" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="G104" s="42" t="s">
+      <c r="G104" s="41" t="s">
         <v>122</v>
       </c>
       <c r="H104" s="17"/>
@@ -35676,19 +35678,19 @@
       <c r="B105" s="22">
         <v>4</v>
       </c>
-      <c r="C105" s="41" t="s">
+      <c r="C105" s="40" t="s">
         <v>118</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E105" s="41" t="s">
+      <c r="E105" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="F105" s="41" t="s">
+      <c r="F105" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="G105" s="42" t="s">
+      <c r="G105" s="41" t="s">
         <v>120</v>
       </c>
       <c r="H105" s="17"/>
@@ -35715,14 +35717,14 @@
     </row>
     <row r="108" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="13"/>
-      <c r="B108" s="44" t="s">
+      <c r="B108" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="C108" s="45"/>
-      <c r="D108" s="45"/>
-      <c r="E108" s="45"/>
-      <c r="F108" s="45"/>
-      <c r="G108" s="46"/>
+      <c r="C108" s="44"/>
+      <c r="D108" s="44"/>
+      <c r="E108" s="44"/>
+      <c r="F108" s="44"/>
+      <c r="G108" s="45"/>
       <c r="H108" s="17"/>
     </row>
     <row r="109" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -35752,19 +35754,19 @@
       <c r="B110" s="22">
         <v>1</v>
       </c>
-      <c r="C110" s="41" t="s">
+      <c r="C110" s="40" t="s">
         <v>110</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E110" s="41" t="s">
+      <c r="E110" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="F110" s="41" t="s">
+      <c r="F110" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="G110" s="42" t="s">
+      <c r="G110" s="41" t="s">
         <v>108</v>
       </c>
       <c r="H110" s="17"/>
@@ -35774,13 +35776,13 @@
       <c r="B111" s="22">
         <v>2</v>
       </c>
-      <c r="C111" s="41" t="s">
+      <c r="C111" s="40" t="s">
         <v>109</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E111" s="41" t="s">
+      <c r="E111" s="40" t="s">
         <v>104</v>
       </c>
       <c r="F111" s="7" t="s">
@@ -35833,6 +35835,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B80:G80"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B42:G42"/>
@@ -35843,13 +35852,6 @@
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B58:G58"/>
     <mergeCell ref="B52:G52"/>
-    <mergeCell ref="B99:G99"/>
-    <mergeCell ref="B108:G108"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B85:G85"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="B80:G80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
